--- a/doc/クラス構成図/クラス構成図_マップ_F2_fireworks.xlsx
+++ b/doc/クラス構成図/クラス構成図_マップ_F2_fireworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\クラス構成図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2CD296-526A-4698-809D-C014ECFBBB5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD44839-9E31-459A-8E6F-CA4BBFD12DBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1070,13 +1070,13 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>171823</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>74708</xdr:rowOff>
+      <xdr:rowOff>74706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>154452</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>52295</xdr:rowOff>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1091,10 +1091,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6521823" y="1045884"/>
-          <a:ext cx="2014629" cy="2114176"/>
+          <a:off x="6521823" y="1045882"/>
+          <a:ext cx="2014629" cy="2106706"/>
           <a:chOff x="6362675" y="2500004"/>
-          <a:chExt cx="2097756" cy="1458565"/>
+          <a:chExt cx="2097756" cy="1453412"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1252,7 +1252,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="6363994" y="2850111"/>
-            <a:ext cx="2088232" cy="294312"/>
+            <a:ext cx="2088232" cy="335366"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1372,11 +1372,17 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>- </a:t>
+              <a:t>- F2DB</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>-</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ja-JP" altLang="en-US"/>
-              <a:t>リセット条件</a:t>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> Spot</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="ja-JP"/>
           </a:p>
@@ -1395,8 +1401,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6362675" y="3141005"/>
-            <a:ext cx="2088232" cy="817564"/>
+            <a:off x="6362675" y="3185478"/>
+            <a:ext cx="2088232" cy="767938"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3460,8 +3466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/doc/クラス構成図/クラス構成図_マップ_F2_fireworks.xlsx
+++ b/doc/クラス構成図/クラス構成図_マップ_F2_fireworks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\クラス構成図\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD44839-9E31-459A-8E6F-CA4BBFD12DBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFE41B5-446B-46FF-AC67-CFAA21DF2B0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">クラス設計書!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -106,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -147,6 +158,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -434,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -494,16 +512,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,13 +542,16 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,7 +563,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,7 +1396,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>- F2DB</a:t>
+              <a:t>- F2Database</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3466,8 +3490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF1" activeCellId="2" sqref="K1:M3 W1:X2 AF1:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3493,43 +3517,43 @@
       </c>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
       <c r="W1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="X1" s="21"/>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="36" t="s">
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="28" t="s">
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="30"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15"/>
@@ -3542,48 +3566,48 @@
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="17"/>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30" t="s">
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="31">
+      <c r="X2" s="31"/>
+      <c r="Y2" s="33">
         <v>45089</v>
       </c>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="32" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="33">
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35">
         <v>45089</v>
       </c>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
+      <c r="AI2" s="36"/>
+      <c r="AJ2" s="36"/>
+      <c r="AK2" s="36"/>
+      <c r="AL2" s="36"/>
+      <c r="AM2" s="36"/>
+      <c r="AN2" s="37"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
@@ -3596,38 +3620,38 @@
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
       <c r="J3" s="20"/>
-      <c r="K3" s="22" t="s">
+      <c r="K3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="27"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="28"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
